--- a/Project Outputs for VHF_AMP/BOM/Bill of Materials-VHF_AMP(std).xlsx
+++ b/Project Outputs for VHF_AMP/BOM/Bill of Materials-VHF_AMP(std).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Magazyn_TachBook\My Work\INNE\VHF_Amp\Project Outputs for VHF_AMP\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F6F6C6-3DE9-4E07-B62F-9B9EFBCBC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9F5974-B124-4EDF-8705-70D9DAB9B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDF1175-5812-4400-9078-2672550AB042}"/>
+    <workbookView xWindow="19515" yWindow="1035" windowWidth="7500" windowHeight="6000" xr2:uid="{470C9951-1149-4464-A950-815F7B58EC73}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-VHF_AMP(std)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="747">
   <si>
     <t>Comment</t>
   </si>
@@ -110,7 +110,7 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>C2, C11, C12, C26, C27, C29</t>
+    <t>C2, C11, C12, C26, C27, C29, C42, C63</t>
   </si>
   <si>
     <t>CAPC3216X140N</t>
@@ -164,7 +164,7 @@
     <t>222260115649</t>
   </si>
   <si>
-    <t>C5, C6, C7, C9, C93, C95, C96, C100</t>
+    <t>C5, C6, C7, C9, C93, C95, C96, C100, C155, C156, C157, C159</t>
   </si>
   <si>
     <t>CAPC1608X87N</t>
@@ -194,7 +194,7 @@
     <t>C0805C151J5GACTU</t>
   </si>
   <si>
-    <t>C10, C25, C32, C34, C36, C55_VHF_FWD_RFD, C55_VHF_REV_RFD, C56_VHF_FWD_RFD, C56_VHF_REV_RFD, C57_VHF_FWD_RFD, C57_VHF_REV_RFD, C58_VHF_FWD_RFD, C58_VHF_REV_RFD, C60_VHF_FWD_RFD, C60_VHF_REV_RFD, C61_VHF_FWD_RFD, C61_VHF_REV_RFD, C62, C64, C65, C67, C89, C108, C110, C139, C141, C142, C245_VHF_FWD_RFD, C245_VHF_REV_RFD</t>
+    <t>C10, C25, C32, C34, C36, C55_VHF_FWD_RFD, C55_VHF_REV_RFD, C56_VHF_FWD_RFD, C56_VHF_REV_RFD, C57_VHF_FWD_RFD, C57_VHF_REV_RFD, C58_VHF_FWD_RFD, C58_VHF_REV_RFD, C60_VHF_FWD_RFD, C60_VHF_REV_RFD, C61_VHF_FWD_RFD, C61_VHF_REV_RFD, C62, C64, C65, C67, C89, C108, C110, C139, C141, C142, C150, C152, C153, C161, C162, C245_VHF_FWD_RFD, C245_VHF_REV_RFD</t>
   </si>
   <si>
     <t>CC0402_100NF_16V_10%_X5R, CC0402_100NF_50V_10%_X7R</t>
@@ -281,7 +281,7 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C28, C68, C69, C77, C97, C98, C101, C102, C112, C113, C135, C137, C143, C144</t>
+    <t>C28, C68, C77, C97, C101, C112, C113, C135, C137</t>
   </si>
   <si>
     <t>CC0603_1UF_16V_10%_X7R, CC0603_1UF_25V_10%_X7R</t>
@@ -314,7 +314,7 @@
     <t>CC1812_10UF_100V_20%_X7S_TDK_CKG45N</t>
   </si>
   <si>
-    <t>C33, C35, C37, C38, C104, C107, C114, C134, C138</t>
+    <t>C33, C35, C37, C38, C107, C114, C138, C149</t>
   </si>
   <si>
     <t>CAPC3216X180N</t>
@@ -329,7 +329,7 @@
     <t>1nF</t>
   </si>
   <si>
-    <t>C43, C46, C50, C83, C86, C87</t>
+    <t>C43, C46, C50, C83, C86, C87, C98</t>
   </si>
   <si>
     <t>CC0805_1NF_50V_5%_C0G</t>
@@ -401,7 +401,7 @@
     <t>223858715623</t>
   </si>
   <si>
-    <t>C75, C76, C82, C99, C103, C105, C106, C109, C140</t>
+    <t>C69, C75, C76, C82, C99, C103, C105, C106, C109, C134, C140, C143, C144, C151</t>
   </si>
   <si>
     <t>CC0402_1UF_16V_10%_X5R</t>
@@ -440,6 +440,24 @@
     <t>EMK107ABJ475KA-T</t>
   </si>
   <si>
+    <t>Polarised capacitor</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>CAPMP3216X180N</t>
+  </si>
+  <si>
+    <t>TPSA475K010T1400</t>
+  </si>
+  <si>
+    <t>Low ESR 1R4 Automotive Solid Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>CTE3216-18_4.7UF_10V_10%_AVX_TPSA475K010T1400</t>
+  </si>
+  <si>
     <t>Undefined</t>
   </si>
   <si>
@@ -470,6 +488,30 @@
     <t>CC1206_2.2UF_50V_10%_X7R</t>
   </si>
   <si>
+    <t>C154</t>
+  </si>
+  <si>
+    <t>CAPC2012X110N</t>
+  </si>
+  <si>
+    <t>CC0805_1UF_50V_10%_X7R</t>
+  </si>
+  <si>
+    <t>1.1mm</t>
+  </si>
+  <si>
+    <t>C0805C105K5RACTU</t>
+  </si>
+  <si>
+    <t>C158, C160</t>
+  </si>
+  <si>
+    <t>CC0805_NO-VALUE</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For 0805(2012) Chip Ceramic Capacitor</t>
+  </si>
+  <si>
     <t>SMBJ12A</t>
   </si>
   <si>
@@ -494,7 +536,7 @@
     <t>Schottky Diode</t>
   </si>
   <si>
-    <t>D2, D5, D7</t>
+    <t>D2</t>
   </si>
   <si>
     <t>SOD2512X110N</t>
@@ -512,7 +554,7 @@
     <t>Quad Common Anode ESD Protection Diodes (30kV)</t>
   </si>
   <si>
-    <t>D3</t>
+    <t>D3, D4</t>
   </si>
   <si>
     <t>SOT95P280X110-6N</t>
@@ -527,7 +569,7 @@
     <t>Ultra Low Capacitance Double Rail-to-Rail ESD Protection Diode</t>
   </si>
   <si>
-    <t>D4, D6</t>
+    <t>D6</t>
   </si>
   <si>
     <t>SOT190P230X110-4N</t>
@@ -695,6 +737,24 @@
     <t>30GHz to 1500MHz, 50 Ohm, Low Noise, High IP3, Monolithic Amplifier</t>
   </si>
   <si>
+    <t>MAX1329BETL+</t>
+  </si>
+  <si>
+    <t>12-/16-Bit DAS with ADC, DACs, DPIOs, APIOs, Reference, Voltage Monitors, and Temp Sensor</t>
+  </si>
+  <si>
+    <t>IC8, IC19</t>
+  </si>
+  <si>
+    <t>QFN50P600X600X80-41N-S425</t>
+  </si>
+  <si>
+    <t>MAXIM</t>
+  </si>
+  <si>
+    <t>MAX1329BETL</t>
+  </si>
+  <si>
     <t>ADL5904ACPZN-R7</t>
   </si>
   <si>
@@ -791,24 +851,6 @@
     <t>SPDT RF Switch, 50 Ohms, 5 to 6000MHz, High Power 3W</t>
   </si>
   <si>
-    <t>MAX1329BETL+</t>
-  </si>
-  <si>
-    <t>12-/16-Bit DAS with ADC, DACs, DPIOs, APIOs, Reference, Voltage Monitors, and Temp Sensor</t>
-  </si>
-  <si>
-    <t>IC19</t>
-  </si>
-  <si>
-    <t>QFN50P600X600X80-41N-S425</t>
-  </si>
-  <si>
-    <t>MAXIM</t>
-  </si>
-  <si>
-    <t>MAX1329BETL</t>
-  </si>
-  <si>
     <t>AD8397ARDZ</t>
   </si>
   <si>
@@ -860,13 +902,28 @@
     <t>-25° to +100°C ±2°C Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
   </si>
   <si>
+    <t>MAX6033AAUT25#TG16</t>
+  </si>
+  <si>
+    <t>Ultra-High-Precision Voltage References</t>
+  </si>
+  <si>
+    <t>IC28</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-6N</t>
+  </si>
+  <si>
+    <t>2.5V, 15mA, Ultra-High-Precision Voltage References</t>
+  </si>
+  <si>
     <t>74LVC1GU04GW</t>
   </si>
   <si>
     <t>Single Inverter Buffer</t>
   </si>
   <si>
-    <t>IC29</t>
+    <t>IC29, IC38</t>
   </si>
   <si>
     <t>SOT65P212X110-5N</t>
@@ -899,7 +956,7 @@
     <t>500mA Peak Output LDO Regulator</t>
   </si>
   <si>
-    <t>IC33, IC38</t>
+    <t>IC33</t>
   </si>
   <si>
     <t>3.3V 500mA Peak Output Low Drop-Out  (LDO) Regulator</t>
@@ -1187,19 +1244,19 @@
     <t>L15, L16</t>
   </si>
   <si>
-    <t>IND_BOURNS_SRP4020TA</t>
+    <t>IND_BOURNS_SRN3015</t>
   </si>
   <si>
     <t>BOURNS</t>
   </si>
   <si>
-    <t>SRP4020TA-1R0M</t>
-  </si>
-  <si>
-    <t>Shielded Power Inductor</t>
-  </si>
-  <si>
-    <t>IND_1UH_20%_BOURNS_SRP4020TA</t>
+    <t>SRN3015-1R0Y</t>
+  </si>
+  <si>
+    <t>Semi-Shielded SMD Power Inductor</t>
+  </si>
+  <si>
+    <t>IND_1UH_30%_BOURNS_SRN3015</t>
   </si>
   <si>
     <t>Green</t>
@@ -1208,7 +1265,7 @@
     <t>LED Green 1C 2A</t>
   </si>
   <si>
-    <t>LD1, LD2, LD4, LD5, LD6, LD7</t>
+    <t>LD1, LD2, LD3, LD4, LD5, LD6, LD7, LD8_VHF_FWD_RFD, LD8_VHF_REV_RFD, LD9, LD11</t>
   </si>
   <si>
     <t>LED_KINGBRIGHT_KPH-1608CGCK</t>
@@ -1244,6 +1301,66 @@
     <t>High Performance Right Angle Chip Red LED</t>
   </si>
   <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Trimming Potentiometer</t>
+  </si>
+  <si>
+    <t>P1, P2</t>
+  </si>
+  <si>
+    <t>TRIM_BOURNS_3224W</t>
+  </si>
+  <si>
+    <t>3224W-1-103E</t>
+  </si>
+  <si>
+    <t>12 Turns SMD Trimpot® Trimming Potentiometer (Top Adjust)</t>
+  </si>
+  <si>
+    <t>TRIM_12T_10K_BOURNS_3224W-1-103E</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Push-Button Switch SPDT</t>
+  </si>
+  <si>
+    <t>PB1, PB2</t>
+  </si>
+  <si>
+    <t>SW_C&amp;K_PCM12SMTR</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PCM12SMTR</t>
+  </si>
+  <si>
+    <t>SPDT, Right Angled Ultraminiature Surface Mount Slide Switches, C&amp;K PCM Series</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB_TYCO_1-1825027-1</t>
+  </si>
+  <si>
+    <t>TYCO ELECTRONICS</t>
+  </si>
+  <si>
+    <t>1-1825027-1</t>
+  </si>
+  <si>
+    <t>Right Angle Micro Miniature Tactile Pushbutton Switch, Round Actuator Length = 5.74mm, FSMRAJ Series</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
@@ -1271,7 +1388,7 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R3, R4, R5, R6, R7, R8, R9, R24_VHF_FWD_RFD, R24_VHF_REV_RFD, R92, R105, R151, R153, R154, R235, R236, R241, R242, R243, R247, R248</t>
+    <t>R3, R4, R5, R6, R7, R8, R9, R24_VHF_FWD_RFD, R24_VHF_REV_RFD, R92, R105, R151, R154, R235, R236, R241, R242, R243, R247, R248</t>
   </si>
   <si>
     <t>RESC1005X40N</t>
@@ -1370,7 +1487,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>R16, R34, R35, R36, R37, R38, R39, R44, R45, R47, R62, R80, R82, R158</t>
+    <t>R16, R34, R35, R36, R37, R38, R39, R44, R45, R62, R80, R82, R158, R169</t>
   </si>
   <si>
     <t>R0402_100R_1%_0.0625W_100PPM</t>
@@ -1394,7 +1511,7 @@
     <t>NRC06F4702TRF</t>
   </si>
   <si>
-    <t>R22_VHF_FWD_RFD, R22_VHF_REV_RFD, R25_VHF_FWD_RFD, R25_VHF_REV_RFD, R40, R41, R48, R49, R66, R71, R76, R83, R84, R96, R99, R114, R115, R116, R117, R118, R119, R126, R127, R129, R130, R131, R132, R133, R134, R135, R136, R137, R157, R164</t>
+    <t>R22_VHF_FWD_RFD, R22_VHF_REV_RFD, R25_VHF_FWD_RFD, R25_VHF_REV_RFD, R40, R41, R48, R49, R66, R71, R76, R83, R84, R96, R99, R114, R115, R116, R117, R118, R119, R126, R129, R130, R131, R132, R133, R135, R136, R157, R159, R160, R164, R167, R168, R182, R183</t>
   </si>
   <si>
     <t>R0603_0R_JUMPER</t>
@@ -1406,7 +1523,7 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R23_VHF_FWD_RFD, R23_VHF_REV_RFD, R159, R160, R161, R162</t>
+    <t>R23_VHF_FWD_RFD, R23_VHF_REV_RFD, R47, R156, R161, R162, R170, R172, R173, R174, R175, R176, R177, R181</t>
   </si>
   <si>
     <t>R0402_1K_1%_0.0625W_100PPM</t>
@@ -1487,10 +1604,7 @@
     <t>232270673908L</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R32_VHF_FWD_RFD, R32_VHF_REV_RFD, R46, R61, R72, R145, R148, R149, R155, R156, R218</t>
+    <t>R32_VHF_FWD_RFD, R32_VHF_REV_RFD, R46, R61, R72, R145, R148, R149, R153, R155, R171, R179, R218</t>
   </si>
   <si>
     <t>R0402_10K_1%_0.0625W_100PPM, R0402_1K_1%_0.0625W_100PPM</t>
@@ -1547,7 +1661,7 @@
     <t>NRC06F1003TRF</t>
   </si>
   <si>
-    <t>R50, R59</t>
+    <t>R50, R59, R180</t>
   </si>
   <si>
     <t>R0402_47K_1%_0.0625W_100PPM</t>
@@ -1790,13 +1904,25 @@
     <t>150</t>
   </si>
   <si>
-    <t>R102, R103</t>
-  </si>
-  <si>
-    <t>R0603_150R_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>RN73C1J150RBTDF</t>
+    <t>Resistor - 0.1%, Resistor - 1%</t>
+  </si>
+  <si>
+    <t>R102, R103, R127, R137</t>
+  </si>
+  <si>
+    <t>R0603_150R_0.1%_0.063W_10PPM, R0603_150R_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>0.5mm, 0.55mm</t>
+  </si>
+  <si>
+    <t>TYCO HOLSWORTHY, NIC COMPONENT</t>
+  </si>
+  <si>
+    <t>RN73C1J150RBTDF, NRC06F1500TRF</t>
+  </si>
+  <si>
+    <t>Thin Film Chip Resistor, General Purpose Thick Film Chip Resistor</t>
   </si>
   <si>
     <t>4M7</t>
@@ -1817,7 +1943,7 @@
     <t>R0805_4M7_1%_0.125W_100PPM_VISHAY_CRCW e3</t>
   </si>
   <si>
-    <t>R108, R109, R110</t>
+    <t>R108, R109, R110, R178_VHF_FWD_RFD, R178_VHF_REV_RFD</t>
   </si>
   <si>
     <t>R0603_1K_1%_0.1W_100PPM</t>
@@ -1874,6 +2000,18 @@
     <t>R_0R005_0.5%_2W_100PPM_OHMITE_LVK25</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R134</t>
+  </si>
+  <si>
+    <t>R0603_36R_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F36R0TRF</t>
+  </si>
+  <si>
     <t>R140, R141, R142, R143, R144</t>
   </si>
   <si>
@@ -1937,25 +2075,22 @@
     <t>THERM_NTC_100K_VISHAY_NTCS0603E3104FXT</t>
   </si>
   <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>2x SPDT Switch</t>
-  </si>
-  <si>
-    <t>SW1, SW2</t>
-  </si>
-  <si>
-    <t>SW_ERG_SCS-2-023</t>
-  </si>
-  <si>
-    <t>ITW ERG</t>
-  </si>
-  <si>
-    <t>SCS-2-023</t>
-  </si>
-  <si>
-    <t>2 Way SPDT, Thru Hole DIP Switch, Spectra C-023 Style</t>
+    <t>SCHROFF_PANEL_3U_4HP</t>
+  </si>
+  <si>
+    <t>Schroff 3HP 4U EUROCARD Panel Kit</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>SCHROFF_PANEL_3HP_4U</t>
+  </si>
+  <si>
+    <t>Schroff</t>
+  </si>
+  <si>
+    <t>20818-017</t>
   </si>
   <si>
     <t>Trans Ideal</t>
@@ -2036,25 +2171,10 @@
     <t>50V 200mA N-Channel Enhancement Mode Field-Effect Transistor</t>
   </si>
   <si>
-    <t>BSH103</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>SOT95P230X110-3N</t>
-  </si>
-  <si>
-    <t>NEXPERIA</t>
-  </si>
-  <si>
-    <t>30V 850mA N-Channel Enhancement Mode Field-Effect Transistor</t>
-  </si>
-  <si>
     <t>Test Point</t>
   </si>
   <si>
-    <t>TP1, TP3, TP4, TP5, TP16, TP18, TP22, TP23</t>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8_VHF_FWD_RFD, TP8_VHF_REV_RFD, TP10, TP11, TP12, TP16, TP18, TP20, TP21, TP22, TP23, TP25, TP26, TP27, TP28, TP29, TP31, TP32, TP33, TP34</t>
   </si>
   <si>
     <t>TPS127</t>
@@ -2066,7 +2186,7 @@
     <t>SMD_PAD_1.27X1.27MM</t>
   </si>
   <si>
-    <t>TP6, TP7, TP13, TP24</t>
+    <t>TP13, TP24</t>
   </si>
   <si>
     <t>NICOMATIC_C12000B</t>
@@ -2145,13 +2265,28 @@
   </si>
   <si>
     <t>U1</t>
+  </si>
+  <si>
+    <t>Custom 3D printed</t>
+  </si>
+  <si>
+    <t>SMA_Shoulder Washer</t>
+  </si>
+  <si>
+    <t>WASHER1, WASHER2</t>
+  </si>
+  <si>
+    <t>Keystone_7687</t>
+  </si>
+  <si>
+    <t>Polyphenylene Sulfide PPS Shoulder Washer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,24 +2295,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2188,16 +2307,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2225,29 +2334,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2578,19 +2676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D657CE-80BC-4862-BD25-8BF46BCFDAEE}">
-  <dimension ref="A1:L142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1816B23-E9FE-4132-B925-2CCAC9A7B858}">
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="11" width="52" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="1" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2797,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2818,7 +2911,7 @@
         <v>43</v>
       </c>
       <c r="L6" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2894,7 +2987,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,35 +3066,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3116,35 +3209,38 @@
         <v>81</v>
       </c>
       <c r="L14" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>19</v>
       </c>
     </row>
@@ -3177,7 +3273,7 @@
         <v>94</v>
       </c>
       <c r="L16" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,7 +3311,7 @@
         <v>97</v>
       </c>
       <c r="L17" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3437,7 +3533,7 @@
         <v>121</v>
       </c>
       <c r="L23" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3518,10 +3614,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>134</v>
@@ -3530,148 +3626,156 @@
         <v>135</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2" t="s">
         <v>137</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>142</v>
       </c>
       <c r="L27" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
       <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
       <c r="J29" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="2" t="s">
@@ -3681,59 +3785,59 @@
         <v>155</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3742,7 +3846,7 @@
         <v>168</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -3762,19 +3866,19 @@
         <v>172</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L33" s="1">
         <v>2</v>
@@ -3782,115 +3886,115 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="L35" s="6">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>189</v>
       </c>
       <c r="L36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>194</v>
@@ -3899,10 +4003,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -3910,31 +4014,31 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -3969,7 +4073,7 @@
         <v>203</v>
       </c>
       <c r="L39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3986,10 +4090,10 @@
         <v>211</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4001,100 +4105,100 @@
         <v>208</v>
       </c>
       <c r="L40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="D41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L43" s="1">
         <v>2</v>
@@ -4102,10 +4206,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>229</v>
@@ -4114,10 +4218,10 @@
         <v>230</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -4126,10 +4230,10 @@
         <v>231</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4149,19 +4253,19 @@
         <v>236</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,16 +4273,16 @@
         <v>238</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>238</v>
@@ -4187,7 +4291,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>238</v>
@@ -4198,127 +4302,127 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="L47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L50" s="1">
         <v>2</v>
@@ -4326,34 +4430,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="L51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4367,10 +4471,10 @@
         <v>267</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>265</v>
@@ -4379,42 +4483,42 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>265</v>
       </c>
       <c r="L52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L53" s="1">
         <v>2</v>
@@ -4422,63 +4526,63 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L55" s="1">
         <v>2</v>
@@ -4486,31 +4590,31 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L56" s="1">
         <v>2</v>
@@ -4518,31 +4622,31 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
@@ -4559,10 +4663,10 @@
         <v>294</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>292</v>
@@ -4571,105 +4675,108 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L59" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" s="11" t="s">
+      <c r="A60" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="B60" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J60" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="L60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="D60" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="K60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="E61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L61" s="6">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4684,22 +4791,22 @@
         <v>313</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
@@ -4707,95 +4814,95 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L65" s="1">
         <v>1</v>
@@ -4803,31 +4910,31 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
@@ -4835,95 +4942,95 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L68" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>351</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="2" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
@@ -4931,223 +5038,223 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>371</v>
+        <v>186</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="L73" s="6">
-        <v>2</v>
+      <c r="L73" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L74" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>398</v>
+        <v>87</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L76" s="1">
         <v>2</v>
@@ -5155,151 +5262,127 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>415</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
       <c r="J77" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L77" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
       <c r="J78" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L78" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
       <c r="J80" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L80" s="1">
         <v>2</v>
@@ -5307,37 +5390,31 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>16</v>
+        <v>431</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>437</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L81" s="1">
         <v>2</v>
@@ -5345,265 +5422,253 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="K82" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I83" s="2" t="s">
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="K83" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L83" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>452</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L84" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>460</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L85" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L86" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>460</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L88" s="1">
         <v>2</v>
@@ -5611,113 +5676,113 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>460</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="L89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="L90" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L91" s="1">
         <v>1</v>
@@ -5725,227 +5790,227 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="L92" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="L93" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="L94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>494</v>
+        <v>33</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="L95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L97" s="1">
         <v>2</v>
@@ -5953,75 +6018,75 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="L99" s="1">
         <v>2</v>
@@ -6029,113 +6094,113 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L100" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="L101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>402</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>413</v>
+        <v>532</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>414</v>
+        <v>533</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="L102" s="1">
         <v>1</v>
@@ -6143,107 +6208,113 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="L103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>529</v>
+        <v>16</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+        <v>541</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="J104" s="2" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="L104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="L105" s="1">
         <v>2</v>
@@ -6251,75 +6322,75 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="L106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="L107" s="1">
         <v>2</v>
@@ -6327,37 +6398,37 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L108" s="1">
         <v>1</v>
@@ -6365,75 +6436,75 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>536</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>133</v>
+        <v>453</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>133</v>
+        <v>559</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="L109" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>401</v>
+        <v>560</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>452</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="L110" s="1">
         <v>1</v>
@@ -6441,113 +6512,107 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>448</v>
+        <v>566</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>559</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
       <c r="J111" s="2" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="L111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>408</v>
+        <v>571</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>422</v>
+        <v>533</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="L112" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>452</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="L113" s="1">
         <v>1</v>
@@ -6555,601 +6620,633 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>402</v>
+        <v>529</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>414</v>
+        <v>533</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>402</v>
+        <v>529</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="L115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>422</v>
+        <v>139</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>581</v>
+        <v>139</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>424</v>
+        <v>589</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="L116" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>494</v>
+        <v>33</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>495</v>
+        <v>592</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>402</v>
+        <v>529</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>588</v>
+        <v>487</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>576</v>
+        <v>16</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+        <v>596</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>597</v>
+      </c>
       <c r="J118" s="2" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L118" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>460</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L119" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>421</v>
+        <v>33</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="L121" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>604</v>
+        <v>441</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>606</v>
+        <v>487</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>607</v>
+        <v>16</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+        <v>612</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="J122" s="2" t="s">
-        <v>609</v>
+        <v>463</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>434</v>
+        <v>616</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="L123" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>402</v>
+        <v>621</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>33</v>
+        <v>624</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>414</v>
+        <v>625</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>424</v>
+        <v>627</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="L124" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>411</v>
+        <v>630</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>16</v>
+        <v>614</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>621</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
       <c r="J125" s="2" t="s">
-        <v>424</v>
+        <v>632</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="L125" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="L126" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>498</v>
+        <v>637</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>626</v>
+        <v>529</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>628</v>
+        <v>458</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>576</v>
+        <v>16</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+        <v>639</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="J127" s="2" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="L127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>633</v>
+        <v>529</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>635</v>
+        <v>458</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>636</v>
+        <v>16</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+        <v>643</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="J128" s="2" t="s">
-        <v>638</v>
+        <v>535</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="L128" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+        <v>648</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>650</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
+      <c r="J129" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>652</v>
+      </c>
       <c r="L129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>646</v>
+        <v>487</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+        <v>655</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="J130" s="2" t="s">
-        <v>647</v>
+        <v>463</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="L130" s="1">
         <v>1</v>
@@ -7157,267 +7254,299 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>649</v>
+        <v>473</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>646</v>
+        <v>450</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+        <v>658</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>659</v>
+      </c>
       <c r="J131" s="2" t="s">
-        <v>647</v>
+        <v>463</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="L131" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>640</v>
+        <v>441</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
+        <v>487</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>662</v>
+      </c>
       <c r="L132" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>640</v>
+        <v>441</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>666</v>
+      </c>
       <c r="L133" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>657</v>
+        <v>441</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>192</v>
+        <v>450</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>659</v>
+        <v>16</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
+        <v>670</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="J134" s="2" t="s">
-        <v>657</v>
+        <v>463</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="L134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>660</v>
+        <v>536</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="L135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>665</v>
-      </c>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
       <c r="L136" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>674</v>
-      </c>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
       <c r="L137" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>677</v>
+        <v>173</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="2" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="L138" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="2" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="L139" s="1">
         <v>1</v>
@@ -7425,90 +7554,326 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>690</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>692</v>
-      </c>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
       <c r="L140" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>697</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>698</v>
-      </c>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
       <c r="L141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
+      <c r="J142" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="L142" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="L143" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="L144" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="L145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="L147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="L148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L150" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for VHF_AMP/BOM/Bill of Materials-VHF_AMP(std).xlsx
+++ b/Project Outputs for VHF_AMP/BOM/Bill of Materials-VHF_AMP(std).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Magazyn_TachBook\My Work\INNE\VHF_Amp\Project Outputs for VHF_AMP\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9F5974-B124-4EDF-8705-70D9DAB9B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88DB2308-A29D-49E1-B9AB-63E84F1AB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="1035" windowWidth="7500" windowHeight="6000" xr2:uid="{470C9951-1149-4464-A950-815F7B58EC73}"/>
+    <workbookView xWindow="19515" yWindow="1035" windowWidth="7500" windowHeight="6000" xr2:uid="{D759F41C-AE8E-4BBC-B61B-61E50EBD7513}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-VHF_AMP(std)" sheetId="1" r:id="rId1"/>
@@ -2676,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1816B23-E9FE-4132-B925-2CCAC9A7B858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9E1F8A-8A36-416A-B100-853BD5BB4B14}">
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for VHF_AMP/BOM/Bill of Materials-VHF_AMP(std).xlsx
+++ b/Project Outputs for VHF_AMP/BOM/Bill of Materials-VHF_AMP(std).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Magazyn_TachBook\My Work\INNE\VHF_Amp\Project Outputs for VHF_AMP\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88DB2308-A29D-49E1-B9AB-63E84F1AB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFF2554-6C04-4A8B-B31C-7A0F7E596F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="1035" windowWidth="7500" windowHeight="6000" xr2:uid="{D759F41C-AE8E-4BBC-B61B-61E50EBD7513}"/>
+    <workbookView xWindow="19515" yWindow="1035" windowWidth="7500" windowHeight="6000" xr2:uid="{84377CA4-5872-4623-A0D9-CE123B06C859}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-VHF_AMP(std)" sheetId="1" r:id="rId1"/>
@@ -2676,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9E1F8A-8A36-416A-B100-853BD5BB4B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AD2067-7A6B-462E-BDB1-5E6B28FF497D}">
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
